--- a/Data/INDpT.xlsx
+++ b/Data/INDpT.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Tesis\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Puya_CV_2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC45DD8-84A8-4DC3-AE8B-CB0D15CC6FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BCE087-E993-46C0-901A-F8C4D711BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1545" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Puya</t>
   </si>
@@ -55,6 +58,12 @@
   </si>
   <si>
     <t>Pi</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>No_fire</t>
   </si>
 </sst>
 </file>
@@ -62,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +397,7 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,17 +422,8 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="J1">
-        <v>2002</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,24 +451,8 @@
         <f>SUM(B2:G2)</f>
         <v>306</v>
       </c>
-      <c r="J2">
-        <f>B6+E6</f>
-        <v>116</v>
-      </c>
-      <c r="K2">
-        <f>C6+F6</f>
-        <v>807</v>
-      </c>
-      <c r="L2">
-        <f>D6+G6</f>
-        <v>147</v>
-      </c>
-      <c r="M2">
-        <f>SUM(J2:L2)</f>
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -496,7 +480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,7 +509,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -552,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -585,138 +569,336 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DACAF3-AFFF-40E0-8514-CE7588B1AFB8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>9+3+6+5+3+5+4+2+1+2+5</f>
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <f>200+30+23+10+63+107+83+10+45+41+2+2+13+1</f>
+        <v>630</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1988</v>
+      </c>
+      <c r="B4">
+        <f>4+1+2+1+5+4+5+2+1+1+6+1+4+1+1+1+1</f>
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1988</v>
+      </c>
+      <c r="B7">
+        <f>14+1+15+8+4+2+1+5+1+2+5</f>
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>19+6+2+9</f>
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C15EAF-58B6-48E5-A94F-1BCCE0401D9D}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <f>B2+D2+E2+G2</f>
+      <c r="B2">
+        <f>Sheet1!B2+Sheet1!D2+Sheet1!E2+Sheet1!G2</f>
         <v>215</v>
       </c>
-      <c r="C9" s="1">
-        <f>B9/$B$13</f>
+      <c r="C2" s="1">
+        <f>B2/$B$6</f>
         <v>0.81749049429657794</v>
       </c>
-      <c r="D9">
+      <c r="D2">
         <v>91</v>
       </c>
-      <c r="E9" s="2">
-        <f>D9/$D$13</f>
+      <c r="E2" s="2">
+        <f>D2/$D$6</f>
         <v>0.1127633209417596</v>
       </c>
-      <c r="F9">
-        <f>SUM(B9:D9)</f>
+      <c r="F2">
+        <f>SUM(B2:D2)</f>
         <v>306.81749049429658</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:E12" si="2">B10/$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B3/$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>45</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E11" si="3">D10/$D$13</f>
+      <c r="E3" s="2">
+        <f>D3/$D$6</f>
         <v>5.5762081784386616E-2</v>
       </c>
-      <c r="F10">
-        <f>SUM(B10:D10)</f>
+      <c r="F3">
+        <f>SUM(B3:D3)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <f>D4+G4</f>
+      <c r="B4">
+        <f>Sheet1!D4+Sheet1!G4</f>
         <v>48</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
+      <c r="C4" s="1">
+        <f>B4/$B$6</f>
         <v>0.18250950570342206</v>
       </c>
-      <c r="D11">
-        <f>C4+F4</f>
+      <c r="D4">
+        <f>Sheet1!C4+Sheet1!F4</f>
         <v>665</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
+      <c r="E4" s="2">
+        <f>D4/$D$6</f>
         <v>0.82403965303593552</v>
       </c>
-      <c r="F11">
-        <f>SUM(B11:D11)</f>
+      <c r="F4">
+        <f>SUM(B4:D4)</f>
         <v>713.18250950570336</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>B5/$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
-        <f>D12/$D$13</f>
+      <c r="E5" s="2">
+        <f>D5/$D$6</f>
         <v>7.4349442379182153E-3</v>
       </c>
-      <c r="F12">
-        <f>SUM(B12:D12)</f>
+      <c r="F5">
+        <f>SUM(B5:D5)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <f>SUM(B9:B12)</f>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
         <v>263</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:E13" si="4">SUM(C9:C12)</f>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
         <v>1</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
         <v>807</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
+      <c r="E6">
+        <f>SUM(E2:E5)</f>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f>SUM(B13:D13)</f>
+      <c r="F6">
+        <f>SUM(B6:D6)</f>
         <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC801A2-66E9-4AD8-B5F0-61AD4BE5A491}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2002</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Sheet1!B6+Sheet1!E6</f>
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <f>Sheet1!C6+Sheet1!F6</f>
+        <v>807</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!D6+Sheet1!G6</f>
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <f>SUM(A2:C2)</f>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
